--- a/biology/Histoire de la zoologie et de la botanique/Allen_Eddy_Greer/Allen_Eddy_Greer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Allen_Eddy_Greer/Allen_Eddy_Greer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allen Eddy Greer est un herpétologiste australien.
 Après des études au muséum de Zoologie comparée de l'université Harvard, il est diplômé en 1973.
-En 1974-1975, il travaille à l'université de Californie à Berkeley. Depuis, il travaille à l'Australian Museum[1].
+En 1974-1975, il travaille à l'université de Californie à Berkeley. Depuis, il travaille à l'Australian Museum.
 C'est un spécialiste de l'herpétofaune d'Océanie et de la famille des Scincidae.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cophoscincopus greeri Böhme, Schmitz &amp; Ziegler, 2000
 Ctenotus greeri Storr, 1979
@@ -550,7 +564,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acontias litoralis Broadley &amp; Greer, 1969
